--- a/resources/experiment 1/predictions/multiple/RandomForestRegressor/average time/Retinopatías.xlsx
+++ b/resources/experiment 1/predictions/multiple/RandomForestRegressor/average time/Retinopatías.xlsx
@@ -497,2700 +497,2700 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>34.20965178756053</v>
+        <v>34.17937329195014</v>
       </c>
       <c r="B2" t="n">
-        <v>29.20382723220118</v>
+        <v>29.36292793772601</v>
       </c>
       <c r="C2" t="n">
-        <v>39.30482040020648</v>
+        <v>39.23049346501715</v>
       </c>
       <c r="D2" t="n">
-        <v>23.34230156397011</v>
+        <v>23.331730174041</v>
       </c>
       <c r="E2" t="n">
-        <v>19.71032502654153</v>
+        <v>19.69795564090124</v>
       </c>
       <c r="F2" t="n">
-        <v>27.08555943845744</v>
+        <v>27.10557193995341</v>
       </c>
       <c r="G2" t="n">
-        <v>13.92355833314735</v>
+        <v>13.92036454438797</v>
       </c>
       <c r="H2" t="n">
-        <v>10.91272615239327</v>
+        <v>10.95245041468372</v>
       </c>
       <c r="I2" t="n">
-        <v>18.27341931025989</v>
+        <v>18.24458843502201</v>
       </c>
       <c r="J2" t="n">
-        <v>22.79483464251267</v>
+        <v>22.7957292726789</v>
       </c>
       <c r="K2" t="n">
-        <v>19.34306134380983</v>
+        <v>19.22985656262092</v>
       </c>
       <c r="L2" t="n">
-        <v>26.64809179300151</v>
+        <v>26.7291141594762</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>25.57521332260892</v>
+        <v>26.35367826879454</v>
       </c>
       <c r="B3" t="n">
-        <v>7.469219396756197</v>
+        <v>7.724096347031954</v>
       </c>
       <c r="C3" t="n">
-        <v>43.24988576864531</v>
+        <v>44.38747671232877</v>
       </c>
       <c r="D3" t="n">
-        <v>18.85598010589432</v>
+        <v>19.24347092404504</v>
       </c>
       <c r="E3" t="n">
-        <v>11.84331231499929</v>
+        <v>11.8921260973301</v>
       </c>
       <c r="F3" t="n">
-        <v>27.08791872169368</v>
+        <v>27.74189888691287</v>
       </c>
       <c r="G3" t="n">
-        <v>18.15495405273104</v>
+        <v>18.50043781454579</v>
       </c>
       <c r="H3" t="n">
-        <v>6.964089606925413</v>
+        <v>7.009229355022826</v>
       </c>
       <c r="I3" t="n">
-        <v>29.86962888903641</v>
+        <v>29.94022984018261</v>
       </c>
       <c r="J3" t="n">
-        <v>21.7569642327923</v>
+        <v>21.91525684246636</v>
       </c>
       <c r="K3" t="n">
-        <v>4.330503919330283</v>
+        <v>5.223647945205482</v>
       </c>
       <c r="L3" t="n">
-        <v>39.99722545118497</v>
+        <v>40.03281815068485</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>25.92022455957025</v>
+        <v>26.06846105535194</v>
       </c>
       <c r="B4" t="n">
-        <v>8.834938193810238</v>
+        <v>8.414599999999986</v>
       </c>
       <c r="C4" t="n">
-        <v>44.52974080560985</v>
+        <v>43.33748082191774</v>
       </c>
       <c r="D4" t="n">
-        <v>20.14499205536796</v>
+        <v>20.12970055825177</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00920844284376</v>
+        <v>14.91999785170857</v>
       </c>
       <c r="F4" t="n">
-        <v>25.52701904387688</v>
+        <v>25.46975681562334</v>
       </c>
       <c r="G4" t="n">
-        <v>17.70315771018111</v>
+        <v>17.59628399257029</v>
       </c>
       <c r="H4" t="n">
-        <v>12.55702196018015</v>
+        <v>12.55577600995486</v>
       </c>
       <c r="I4" t="n">
-        <v>23.3815040478219</v>
+        <v>23.26476233187637</v>
       </c>
       <c r="J4" t="n">
-        <v>22.23528031952389</v>
+        <v>22.11781353632139</v>
       </c>
       <c r="K4" t="n">
-        <v>12.93780102285912</v>
+        <v>12.86019787671231</v>
       </c>
       <c r="L4" t="n">
-        <v>31.73601980978995</v>
+        <v>31.74909096885602</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>32.22560850151</v>
+        <v>31.97555395668792</v>
       </c>
       <c r="B5" t="n">
-        <v>9.808576418556052</v>
+        <v>8.560739726027377</v>
       </c>
       <c r="C5" t="n">
-        <v>52.33203846543358</v>
+        <v>52.77671780821916</v>
       </c>
       <c r="D5" t="n">
-        <v>23.30491460551692</v>
+        <v>23.30857749718088</v>
       </c>
       <c r="E5" t="n">
-        <v>16.16736639432184</v>
+        <v>16.11241083649258</v>
       </c>
       <c r="F5" t="n">
-        <v>30.92229514311495</v>
+        <v>31.09786514124898</v>
       </c>
       <c r="G5" t="n">
-        <v>21.85297569463311</v>
+        <v>22.11767589084112</v>
       </c>
       <c r="H5" t="n">
-        <v>8.505736004394064</v>
+        <v>8.690101314416163</v>
       </c>
       <c r="I5" t="n">
-        <v>34.80387504088998</v>
+        <v>35.1853450684931</v>
       </c>
       <c r="J5" t="n">
-        <v>26.81620209482942</v>
+        <v>26.62176316608863</v>
       </c>
       <c r="K5" t="n">
-        <v>8.426118498843614</v>
+        <v>8.391024657534235</v>
       </c>
       <c r="L5" t="n">
-        <v>45.05786485597982</v>
+        <v>45.77450913242003</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>36.7076212330399</v>
+        <v>37.19348842648587</v>
       </c>
       <c r="B6" t="n">
-        <v>24.43377645653655</v>
+        <v>23.98123353989992</v>
       </c>
       <c r="C6" t="n">
-        <v>49.46279184899233</v>
+        <v>49.42679538812779</v>
       </c>
       <c r="D6" t="n">
-        <v>27.34888956359381</v>
+        <v>28.03495169813603</v>
       </c>
       <c r="E6" t="n">
-        <v>24.06920110575279</v>
+        <v>24.1910100917262</v>
       </c>
       <c r="F6" t="n">
-        <v>32.10468813600869</v>
+        <v>32.12065948822025</v>
       </c>
       <c r="G6" t="n">
-        <v>22.55730820857866</v>
+        <v>22.27875907542503</v>
       </c>
       <c r="H6" t="n">
-        <v>18.34739153313223</v>
+        <v>18.71160692302947</v>
       </c>
       <c r="I6" t="n">
-        <v>26.40248934024304</v>
+        <v>25.95515991484854</v>
       </c>
       <c r="J6" t="n">
-        <v>29.6507456179157</v>
+        <v>30.37718900695146</v>
       </c>
       <c r="K6" t="n">
-        <v>24.77179267185987</v>
+        <v>23.91714205699842</v>
       </c>
       <c r="L6" t="n">
-        <v>35.77018494087233</v>
+        <v>36.06423185137177</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>29.22402683425014</v>
+        <v>28.91101102282089</v>
       </c>
       <c r="B7" t="n">
-        <v>23.2490184172995</v>
+        <v>24.13485765929368</v>
       </c>
       <c r="C7" t="n">
-        <v>33.82467046323911</v>
+        <v>33.79819636359464</v>
       </c>
       <c r="D7" t="n">
-        <v>20.82986863201088</v>
+        <v>20.74727775537701</v>
       </c>
       <c r="E7" t="n">
-        <v>18.23551544665894</v>
+        <v>18.19581839867354</v>
       </c>
       <c r="F7" t="n">
-        <v>23.84239403181864</v>
+        <v>23.72028393147623</v>
       </c>
       <c r="G7" t="n">
-        <v>12.74094302003503</v>
+        <v>12.75226534059749</v>
       </c>
       <c r="H7" t="n">
-        <v>10.2381576800499</v>
+        <v>10.27412851291136</v>
       </c>
       <c r="I7" t="n">
-        <v>16.1278629846467</v>
+        <v>16.08569624392209</v>
       </c>
       <c r="J7" t="n">
-        <v>20.33843540587952</v>
+        <v>20.30816020992707</v>
       </c>
       <c r="K7" t="n">
-        <v>17.43843754806717</v>
+        <v>17.42627739737629</v>
       </c>
       <c r="L7" t="n">
-        <v>23.04091712288866</v>
+        <v>23.12784022647515</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>19.75255789616614</v>
+        <v>19.74371943946466</v>
       </c>
       <c r="B8" t="n">
-        <v>16.77835160163945</v>
+        <v>16.68357572480302</v>
       </c>
       <c r="C8" t="n">
-        <v>22.87229116481427</v>
+        <v>22.69771929828047</v>
       </c>
       <c r="D8" t="n">
-        <v>10.35511499822925</v>
+        <v>10.37377911918542</v>
       </c>
       <c r="E8" t="n">
-        <v>8.088539610173189</v>
+        <v>8.092730561664133</v>
       </c>
       <c r="F8" t="n">
-        <v>13.50912302378588</v>
+        <v>13.50031226059065</v>
       </c>
       <c r="G8" t="n">
-        <v>1.344199692486416</v>
+        <v>1.357357253997592</v>
       </c>
       <c r="H8" t="n">
-        <v>1.063283545914276</v>
+        <v>1.073234656830994</v>
       </c>
       <c r="I8" t="n">
-        <v>1.851750070787272</v>
+        <v>1.872642378406527</v>
       </c>
       <c r="J8" t="n">
-        <v>3.745149977257846</v>
+        <v>3.78657699398913</v>
       </c>
       <c r="K8" t="n">
-        <v>2.880947427342037</v>
+        <v>2.923562731768896</v>
       </c>
       <c r="L8" t="n">
-        <v>5.120789764370001</v>
+        <v>5.173682056791592</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>33.83300272975771</v>
+        <v>34.17500557534638</v>
       </c>
       <c r="B9" t="n">
-        <v>21.0303733429664</v>
+        <v>21.46197427701669</v>
       </c>
       <c r="C9" t="n">
-        <v>46.87285977644105</v>
+        <v>46.87899118306347</v>
       </c>
       <c r="D9" t="n">
-        <v>25.61260561405435</v>
+        <v>25.99945336041781</v>
       </c>
       <c r="E9" t="n">
-        <v>22.33023583774294</v>
+        <v>22.70346636462544</v>
       </c>
       <c r="F9" t="n">
-        <v>29.6840442583667</v>
+        <v>29.63537224886774</v>
       </c>
       <c r="G9" t="n">
-        <v>20.6869447793563</v>
+        <v>20.75607758270683</v>
       </c>
       <c r="H9" t="n">
-        <v>17.08008453951205</v>
+        <v>17.60107305596389</v>
       </c>
       <c r="I9" t="n">
-        <v>24.28844295310446</v>
+        <v>24.36074131685656</v>
       </c>
       <c r="J9" t="n">
-        <v>27.72775980566993</v>
+        <v>28.08733651613845</v>
       </c>
       <c r="K9" t="n">
-        <v>23.25803998257192</v>
+        <v>23.44276965691799</v>
       </c>
       <c r="L9" t="n">
-        <v>33.10994641270609</v>
+        <v>33.06353489111826</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>21.95416480930598</v>
+        <v>21.80144185160594</v>
       </c>
       <c r="B10" t="n">
-        <v>18.51455562762787</v>
+        <v>18.49647808491827</v>
       </c>
       <c r="C10" t="n">
-        <v>25.40446143957832</v>
+        <v>25.16957878865233</v>
       </c>
       <c r="D10" t="n">
-        <v>10.88524116116477</v>
+        <v>10.85053284463928</v>
       </c>
       <c r="E10" t="n">
-        <v>8.141181018814812</v>
+        <v>8.317679607204065</v>
       </c>
       <c r="F10" t="n">
-        <v>14.54550827732354</v>
+        <v>14.45747095676485</v>
       </c>
       <c r="G10" t="n">
-        <v>1.349428623373593</v>
+        <v>1.346892250513253</v>
       </c>
       <c r="H10" t="n">
-        <v>1.062289846207767</v>
+        <v>1.068226454456534</v>
       </c>
       <c r="I10" t="n">
-        <v>1.839575558716267</v>
+        <v>1.841120335127273</v>
       </c>
       <c r="J10" t="n">
-        <v>3.762546106308216</v>
+        <v>3.812574167178794</v>
       </c>
       <c r="K10" t="n">
-        <v>2.891032635816242</v>
+        <v>2.930369066689236</v>
       </c>
       <c r="L10" t="n">
-        <v>5.141720406211283</v>
+        <v>5.185298612360268</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>31.11928482358038</v>
+        <v>31.18104893939742</v>
       </c>
       <c r="B11" t="n">
-        <v>26.96816272213671</v>
+        <v>26.77481108730082</v>
       </c>
       <c r="C11" t="n">
-        <v>35.7243474546342</v>
+        <v>35.72424291101711</v>
       </c>
       <c r="D11" t="n">
-        <v>18.60680141741464</v>
+        <v>18.625554652305</v>
       </c>
       <c r="E11" t="n">
-        <v>14.64183438208482</v>
+        <v>14.58407625263246</v>
       </c>
       <c r="F11" t="n">
-        <v>22.39156397234933</v>
+        <v>22.70873410956588</v>
       </c>
       <c r="G11" t="n">
-        <v>7.743414900526705</v>
+        <v>7.772530105849788</v>
       </c>
       <c r="H11" t="n">
-        <v>5.231029451918765</v>
+        <v>5.226587475339355</v>
       </c>
       <c r="I11" t="n">
-        <v>11.99029695493407</v>
+        <v>11.8646560837722</v>
       </c>
       <c r="J11" t="n">
-        <v>15.30856832884479</v>
+        <v>15.34478230431267</v>
       </c>
       <c r="K11" t="n">
-        <v>11.26389282704714</v>
+        <v>11.14887361905227</v>
       </c>
       <c r="L11" t="n">
-        <v>20.45723503366145</v>
+        <v>20.39789348356419</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>41.95474861315905</v>
+        <v>42.24725542222827</v>
       </c>
       <c r="B12" t="n">
-        <v>33.64222696495585</v>
+        <v>34.99916997343725</v>
       </c>
       <c r="C12" t="n">
-        <v>48.90809819266139</v>
+        <v>49.87290107069435</v>
       </c>
       <c r="D12" t="n">
-        <v>30.81490080868612</v>
+        <v>30.64371125321442</v>
       </c>
       <c r="E12" t="n">
-        <v>27.5823961100892</v>
+        <v>27.34821467791287</v>
       </c>
       <c r="F12" t="n">
-        <v>34.1420094237933</v>
+        <v>34.65992439179132</v>
       </c>
       <c r="G12" t="n">
-        <v>21.85801262174492</v>
+        <v>22.02065982590804</v>
       </c>
       <c r="H12" t="n">
-        <v>18.78674644023215</v>
+        <v>19.04524841907168</v>
       </c>
       <c r="I12" t="n">
-        <v>25.69981736952679</v>
+        <v>25.98139352456601</v>
       </c>
       <c r="J12" t="n">
-        <v>32.2433747033006</v>
+        <v>32.435652725162</v>
       </c>
       <c r="K12" t="n">
-        <v>29.33487473470785</v>
+        <v>28.82357388724706</v>
       </c>
       <c r="L12" t="n">
-        <v>35.9994011493753</v>
+        <v>36.39152760505557</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>28.31728553084897</v>
+        <v>28.26563063944782</v>
       </c>
       <c r="B13" t="n">
-        <v>24.46287215990281</v>
+        <v>24.54034737711262</v>
       </c>
       <c r="C13" t="n">
-        <v>32.33467365667349</v>
+        <v>32.30246624984888</v>
       </c>
       <c r="D13" t="n">
-        <v>12.86008474639109</v>
+        <v>12.83196928216749</v>
       </c>
       <c r="E13" t="n">
-        <v>9.61570204103181</v>
+        <v>9.619328691706009</v>
       </c>
       <c r="F13" t="n">
-        <v>17.58654764408135</v>
+        <v>17.62452888195456</v>
       </c>
       <c r="G13" t="n">
-        <v>2.097519104649383</v>
+        <v>2.090047178133068</v>
       </c>
       <c r="H13" t="n">
-        <v>1.49650825943991</v>
+        <v>1.488470049631333</v>
       </c>
       <c r="I13" t="n">
-        <v>3.190667117883118</v>
+        <v>3.12503064685257</v>
       </c>
       <c r="J13" t="n">
-        <v>5.624231519193191</v>
+        <v>5.594423434064246</v>
       </c>
       <c r="K13" t="n">
-        <v>4.136298816072412</v>
+        <v>4.070064420771561</v>
       </c>
       <c r="L13" t="n">
-        <v>7.914969746944502</v>
+        <v>7.726798058906928</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>28.49591611259493</v>
+        <v>28.25948761708662</v>
       </c>
       <c r="B14" t="n">
-        <v>24.15754195324045</v>
+        <v>23.87845886574681</v>
       </c>
       <c r="C14" t="n">
-        <v>32.18812831011302</v>
+        <v>32.12449291130548</v>
       </c>
       <c r="D14" t="n">
-        <v>14.98461262173077</v>
+        <v>14.91957581251606</v>
       </c>
       <c r="E14" t="n">
-        <v>11.45666153462692</v>
+        <v>11.33537465591105</v>
       </c>
       <c r="F14" t="n">
-        <v>19.25092759897456</v>
+        <v>19.20233726832849</v>
       </c>
       <c r="G14" t="n">
-        <v>3.931108148362945</v>
+        <v>3.976830858399363</v>
       </c>
       <c r="H14" t="n">
-        <v>2.593874013665356</v>
+        <v>2.576115845649807</v>
       </c>
       <c r="I14" t="n">
-        <v>6.181458290998195</v>
+        <v>6.214219710743643</v>
       </c>
       <c r="J14" t="n">
-        <v>9.176596863590543</v>
+        <v>9.281684468304158</v>
       </c>
       <c r="K14" t="n">
-        <v>6.642914796693983</v>
+        <v>6.487390309519211</v>
       </c>
       <c r="L14" t="n">
-        <v>12.93941455568061</v>
+        <v>13.19646674904321</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>38.44451761681317</v>
+        <v>39.17467617133643</v>
       </c>
       <c r="B15" t="n">
-        <v>11.86718404409896</v>
+        <v>12.0084721461187</v>
       </c>
       <c r="C15" t="n">
-        <v>61.68752347481667</v>
+        <v>62.91030684931506</v>
       </c>
       <c r="D15" t="n">
-        <v>27.72775085622936</v>
+        <v>27.92649312713734</v>
       </c>
       <c r="E15" t="n">
-        <v>19.77532670285168</v>
+        <v>19.6352659998026</v>
       </c>
       <c r="F15" t="n">
-        <v>36.42231111140352</v>
+        <v>37.06536528773245</v>
       </c>
       <c r="G15" t="n">
-        <v>25.81171063621701</v>
+        <v>26.16791782959316</v>
       </c>
       <c r="H15" t="n">
-        <v>13.16209567677753</v>
+        <v>11.85684727658185</v>
       </c>
       <c r="I15" t="n">
-        <v>40.49300929235854</v>
+        <v>41.22065730718453</v>
       </c>
       <c r="J15" t="n">
-        <v>31.51142298241599</v>
+        <v>31.76164336202607</v>
       </c>
       <c r="K15" t="n">
-        <v>12.81827411962742</v>
+        <v>10.64922630136986</v>
       </c>
       <c r="L15" t="n">
-        <v>54.4403558529028</v>
+        <v>54.0416140410959</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>36.65192062441201</v>
+        <v>37.41800258155925</v>
       </c>
       <c r="B16" t="n">
-        <v>24.87544985922309</v>
+        <v>24.23192402391819</v>
       </c>
       <c r="C16" t="n">
-        <v>49.85165004649662</v>
+        <v>49.65117155821909</v>
       </c>
       <c r="D16" t="n">
-        <v>27.3197264336892</v>
+        <v>28.11757811923207</v>
       </c>
       <c r="E16" t="n">
-        <v>24.05733172885323</v>
+        <v>24.30881741379382</v>
       </c>
       <c r="F16" t="n">
-        <v>32.45668683923765</v>
+        <v>32.19889579015826</v>
       </c>
       <c r="G16" t="n">
-        <v>22.52471091331966</v>
+        <v>22.33338309880763</v>
       </c>
       <c r="H16" t="n">
-        <v>18.21112856968164</v>
+        <v>18.71259683747813</v>
       </c>
       <c r="I16" t="n">
-        <v>26.46091165632567</v>
+        <v>26.03644900420023</v>
       </c>
       <c r="J16" t="n">
-        <v>29.46882784007683</v>
+        <v>30.48445545074815</v>
       </c>
       <c r="K16" t="n">
-        <v>24.77442385183083</v>
+        <v>23.98435827687987</v>
       </c>
       <c r="L16" t="n">
-        <v>35.91863495410536</v>
+        <v>36.18127172877657</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>41.47689471052431</v>
+        <v>42.01602055397356</v>
       </c>
       <c r="B17" t="n">
-        <v>33.40850015307538</v>
+        <v>34.79117144315698</v>
       </c>
       <c r="C17" t="n">
-        <v>48.53199810270379</v>
+        <v>49.51148261869655</v>
       </c>
       <c r="D17" t="n">
-        <v>30.71480684941878</v>
+        <v>30.53057676926976</v>
       </c>
       <c r="E17" t="n">
-        <v>27.47822484635146</v>
+        <v>27.17071915180189</v>
       </c>
       <c r="F17" t="n">
-        <v>33.92494078823923</v>
+        <v>34.26293250485417</v>
       </c>
       <c r="G17" t="n">
-        <v>21.74412724697617</v>
+        <v>21.9642749558604</v>
       </c>
       <c r="H17" t="n">
-        <v>18.72353773676568</v>
+        <v>18.68592753461295</v>
       </c>
       <c r="I17" t="n">
-        <v>25.54584081259744</v>
+        <v>25.76828307771914</v>
       </c>
       <c r="J17" t="n">
-        <v>32.17930557269046</v>
+        <v>32.20887437820195</v>
       </c>
       <c r="K17" t="n">
-        <v>29.3083578305124</v>
+        <v>28.76887320352825</v>
       </c>
       <c r="L17" t="n">
-        <v>36.00880231877586</v>
+        <v>36.08707624162672</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>26.03106415668748</v>
+        <v>26.06846105535194</v>
       </c>
       <c r="B18" t="n">
-        <v>8.285899492643317</v>
+        <v>8.414599999999986</v>
       </c>
       <c r="C18" t="n">
-        <v>43.2856096651445</v>
+        <v>43.33748082191774</v>
       </c>
       <c r="D18" t="n">
-        <v>20.14781875596045</v>
+        <v>20.12970055825177</v>
       </c>
       <c r="E18" t="n">
-        <v>15.00920844284376</v>
+        <v>14.91999785170857</v>
       </c>
       <c r="F18" t="n">
-        <v>25.34731052811363</v>
+        <v>25.46975681562334</v>
       </c>
       <c r="G18" t="n">
-        <v>17.80702521796217</v>
+        <v>17.59628399257029</v>
       </c>
       <c r="H18" t="n">
-        <v>12.55702196018015</v>
+        <v>12.55577600995486</v>
       </c>
       <c r="I18" t="n">
-        <v>23.38419062033505</v>
+        <v>23.26476233187637</v>
       </c>
       <c r="J18" t="n">
-        <v>22.22535419676687</v>
+        <v>22.11781353632139</v>
       </c>
       <c r="K18" t="n">
-        <v>12.95696198653205</v>
+        <v>12.86019787671231</v>
       </c>
       <c r="L18" t="n">
-        <v>31.73601980978995</v>
+        <v>31.74909096885602</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>35.18268896039174</v>
+        <v>35.15959998849018</v>
       </c>
       <c r="B19" t="n">
-        <v>30.89172607219908</v>
+        <v>30.91722210400771</v>
       </c>
       <c r="C19" t="n">
-        <v>39.94321672391327</v>
+        <v>39.7721688651218</v>
       </c>
       <c r="D19" t="n">
-        <v>19.75428715213138</v>
+        <v>19.60484027693148</v>
       </c>
       <c r="E19" t="n">
-        <v>15.23788225324453</v>
+        <v>15.19053552650942</v>
       </c>
       <c r="F19" t="n">
-        <v>25.45073719492828</v>
+        <v>25.34166884429666</v>
       </c>
       <c r="G19" t="n">
-        <v>7.891982009516571</v>
+        <v>7.811486213344851</v>
       </c>
       <c r="H19" t="n">
-        <v>5.27570264050941</v>
+        <v>5.288357495293262</v>
       </c>
       <c r="I19" t="n">
-        <v>12.10403065171167</v>
+        <v>12.18392555408135</v>
       </c>
       <c r="J19" t="n">
-        <v>15.76330384028864</v>
+        <v>15.75952106577202</v>
       </c>
       <c r="K19" t="n">
-        <v>11.48007711682255</v>
+        <v>11.6365304038347</v>
       </c>
       <c r="L19" t="n">
-        <v>21.79478609838538</v>
+        <v>22.01098025165206</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>42.04156934993962</v>
+        <v>42.64681414534632</v>
       </c>
       <c r="B20" t="n">
-        <v>30.01848167233373</v>
+        <v>29.94309812745846</v>
       </c>
       <c r="C20" t="n">
-        <v>53.54446432604455</v>
+        <v>53.18914244613442</v>
       </c>
       <c r="D20" t="n">
-        <v>31.74808964747189</v>
+        <v>32.13150101346112</v>
       </c>
       <c r="E20" t="n">
-        <v>27.66401964181239</v>
+        <v>27.70659760519075</v>
       </c>
       <c r="F20" t="n">
-        <v>36.17328014623489</v>
+        <v>36.17091031319749</v>
       </c>
       <c r="G20" t="n">
-        <v>25.5340224919502</v>
+        <v>25.38430828996296</v>
       </c>
       <c r="H20" t="n">
-        <v>21.66406178460868</v>
+        <v>21.93705985475751</v>
       </c>
       <c r="I20" t="n">
-        <v>29.74607868706788</v>
+        <v>29.43373425779605</v>
       </c>
       <c r="J20" t="n">
-        <v>35.19567308602186</v>
+        <v>35.20723270690019</v>
       </c>
       <c r="K20" t="n">
-        <v>30.00852624784123</v>
+        <v>29.64464644308138</v>
       </c>
       <c r="L20" t="n">
-        <v>40.1925953881305</v>
+        <v>40.27106025390025</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>38.7884048203627</v>
+        <v>38.81608183458638</v>
       </c>
       <c r="B21" t="n">
-        <v>18.21458214829307</v>
+        <v>17.979626849315</v>
       </c>
       <c r="C21" t="n">
-        <v>58.09866532789057</v>
+        <v>57.30496285388126</v>
       </c>
       <c r="D21" t="n">
-        <v>29.32239997000072</v>
+        <v>29.29074023351057</v>
       </c>
       <c r="E21" t="n">
-        <v>22.89920718349033</v>
+        <v>22.87337638476082</v>
       </c>
       <c r="F21" t="n">
-        <v>35.98750611547404</v>
+        <v>35.86508204900245</v>
       </c>
       <c r="G21" t="n">
-        <v>25.38615501761005</v>
+        <v>25.60703675405209</v>
       </c>
       <c r="H21" t="n">
-        <v>18.50369079498243</v>
+        <v>18.38470941818844</v>
       </c>
       <c r="I21" t="n">
-        <v>32.12151175461899</v>
+        <v>32.47712848248111</v>
       </c>
       <c r="J21" t="n">
-        <v>32.4349600891065</v>
+        <v>32.94049939383383</v>
       </c>
       <c r="K21" t="n">
-        <v>21.24508920388136</v>
+        <v>21.27176992139069</v>
       </c>
       <c r="L21" t="n">
-        <v>43.70762214734707</v>
+        <v>44.01102349757394</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>23.83786437301859</v>
+        <v>23.76763614849455</v>
       </c>
       <c r="B22" t="n">
-        <v>20.48888749071477</v>
+        <v>20.21646967402652</v>
       </c>
       <c r="C22" t="n">
-        <v>27.43689861475188</v>
+        <v>27.36767314672296</v>
       </c>
       <c r="D22" t="n">
-        <v>11.13219235103054</v>
+        <v>11.15812900854618</v>
       </c>
       <c r="E22" t="n">
-        <v>8.397705641759629</v>
+        <v>8.353563726552826</v>
       </c>
       <c r="F22" t="n">
-        <v>14.94792139270588</v>
+        <v>14.8876714195249</v>
       </c>
       <c r="G22" t="n">
-        <v>1.349753270531653</v>
+        <v>1.352100884142447</v>
       </c>
       <c r="H22" t="n">
-        <v>1.059485117555337</v>
+        <v>1.052648418711212</v>
       </c>
       <c r="I22" t="n">
-        <v>1.864387639794843</v>
+        <v>1.871347451824026</v>
       </c>
       <c r="J22" t="n">
-        <v>3.829155650672778</v>
+        <v>3.837548267592155</v>
       </c>
       <c r="K22" t="n">
-        <v>2.903475064744677</v>
+        <v>2.922670251646531</v>
       </c>
       <c r="L22" t="n">
-        <v>5.20401193273721</v>
+        <v>5.262190437942739</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>38.750064585398</v>
+        <v>38.43760411099009</v>
       </c>
       <c r="B23" t="n">
-        <v>10.23870435819379</v>
+        <v>10.0688821917808</v>
       </c>
       <c r="C23" t="n">
-        <v>62.67740212078711</v>
+        <v>65.41367351598176</v>
       </c>
       <c r="D23" t="n">
-        <v>29.54843280813055</v>
+        <v>29.42337548131447</v>
       </c>
       <c r="E23" t="n">
-        <v>22.06053763260003</v>
+        <v>21.90012205077253</v>
       </c>
       <c r="F23" t="n">
-        <v>38.02033582452292</v>
+        <v>38.65305812545178</v>
       </c>
       <c r="G23" t="n">
-        <v>27.3796102266948</v>
+        <v>28.12977610774936</v>
       </c>
       <c r="H23" t="n">
-        <v>13.06368205033965</v>
+        <v>12.99670961538453</v>
       </c>
       <c r="I23" t="n">
-        <v>43.6441208378467</v>
+        <v>43.90875843503522</v>
       </c>
       <c r="J23" t="n">
-        <v>34.46940416141894</v>
+        <v>34.56480769462971</v>
       </c>
       <c r="K23" t="n">
-        <v>9.11846869337867</v>
+        <v>8.338417465753425</v>
       </c>
       <c r="L23" t="n">
-        <v>57.1911675486518</v>
+        <v>57.17974598825824</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>36.34443369958949</v>
+        <v>37.382614019005</v>
       </c>
       <c r="B24" t="n">
-        <v>24.84956823630989</v>
+        <v>24.20673910806691</v>
       </c>
       <c r="C24" t="n">
-        <v>49.95645240387547</v>
+        <v>49.64483143264832</v>
       </c>
       <c r="D24" t="n">
-        <v>27.3197264336892</v>
+        <v>28.11925050241051</v>
       </c>
       <c r="E24" t="n">
-        <v>24.06822410330505</v>
+        <v>24.27713231951831</v>
       </c>
       <c r="F24" t="n">
-        <v>32.30733128949231</v>
+        <v>32.19829995669559</v>
       </c>
       <c r="G24" t="n">
-        <v>22.52296165815397</v>
+        <v>22.32902817296225</v>
       </c>
       <c r="H24" t="n">
-        <v>18.22811653268097</v>
+        <v>18.71693463961411</v>
       </c>
       <c r="I24" t="n">
-        <v>26.44648045323905</v>
+        <v>26.02382315968231</v>
       </c>
       <c r="J24" t="n">
-        <v>29.47819745804523</v>
+        <v>30.46967502874866</v>
       </c>
       <c r="K24" t="n">
-        <v>24.77442385183083</v>
+        <v>24.00551993030957</v>
       </c>
       <c r="L24" t="n">
-        <v>35.91026183358187</v>
+        <v>36.14947203693022</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>30.33834811776879</v>
+        <v>30.869641371766</v>
       </c>
       <c r="B25" t="n">
-        <v>18.55567027216058</v>
+        <v>18.67872104370511</v>
       </c>
       <c r="C25" t="n">
-        <v>43.15284677026947</v>
+        <v>43.02911958904106</v>
       </c>
       <c r="D25" t="n">
-        <v>23.33845894812205</v>
+        <v>23.53221420870001</v>
       </c>
       <c r="E25" t="n">
-        <v>20.21659125311658</v>
+        <v>19.96393819573313</v>
       </c>
       <c r="F25" t="n">
-        <v>27.43952384464714</v>
+        <v>27.23767151544986</v>
       </c>
       <c r="G25" t="n">
-        <v>18.80377046504309</v>
+        <v>18.73375854272674</v>
       </c>
       <c r="H25" t="n">
-        <v>15.2074512446369</v>
+        <v>15.78462113628713</v>
       </c>
       <c r="I25" t="n">
-        <v>21.87791652942373</v>
+        <v>21.89174439944585</v>
       </c>
       <c r="J25" t="n">
-        <v>24.98379239790792</v>
+        <v>25.41795868387253</v>
       </c>
       <c r="K25" t="n">
-        <v>20.63953260480861</v>
+        <v>20.07533898758255</v>
       </c>
       <c r="L25" t="n">
-        <v>29.87949998459352</v>
+        <v>29.80032808673684</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>38.28878489644499</v>
+        <v>38.62999567134988</v>
       </c>
       <c r="B26" t="n">
-        <v>16.10696012238165</v>
+        <v>17.28166470319629</v>
       </c>
       <c r="C26" t="n">
-        <v>57.29049020134405</v>
+        <v>57.06351011415526</v>
       </c>
       <c r="D26" t="n">
-        <v>29.39643901871827</v>
+        <v>29.37372653863714</v>
       </c>
       <c r="E26" t="n">
-        <v>23.24551349872316</v>
+        <v>23.96025060433388</v>
       </c>
       <c r="F26" t="n">
-        <v>36.01750068396326</v>
+        <v>36.09182802016471</v>
       </c>
       <c r="G26" t="n">
-        <v>25.37848857198188</v>
+        <v>25.41855888361605</v>
       </c>
       <c r="H26" t="n">
-        <v>18.53307953674122</v>
+        <v>18.11956313703129</v>
       </c>
       <c r="I26" t="n">
-        <v>31.71526625160867</v>
+        <v>32.3487062576007</v>
       </c>
       <c r="J26" t="n">
-        <v>32.56546277355213</v>
+        <v>33.3353633166609</v>
       </c>
       <c r="K26" t="n">
-        <v>21.53962081467594</v>
+        <v>22.34547050109705</v>
       </c>
       <c r="L26" t="n">
-        <v>44.16168979091199</v>
+        <v>44.64656110276523</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>31.97761291298697</v>
+        <v>31.88349324552726</v>
       </c>
       <c r="B27" t="n">
-        <v>27.65036950349273</v>
+        <v>27.58789654652137</v>
       </c>
       <c r="C27" t="n">
-        <v>36.12708993255881</v>
+        <v>36.30977880995157</v>
       </c>
       <c r="D27" t="n">
-        <v>13.39989123966056</v>
+        <v>13.53070742546143</v>
       </c>
       <c r="E27" t="n">
-        <v>9.623821972768965</v>
+        <v>9.660397382126884</v>
       </c>
       <c r="F27" t="n">
-        <v>18.51668627996679</v>
+        <v>18.6421706936723</v>
       </c>
       <c r="G27" t="n">
-        <v>2.104247027103197</v>
+        <v>2.129118856216563</v>
       </c>
       <c r="H27" t="n">
-        <v>1.493865526690442</v>
+        <v>1.485519717752181</v>
       </c>
       <c r="I27" t="n">
-        <v>3.226783571026904</v>
+        <v>3.252705205452923</v>
       </c>
       <c r="J27" t="n">
-        <v>5.61612695911043</v>
+        <v>5.578568389829352</v>
       </c>
       <c r="K27" t="n">
-        <v>4.145958102791231</v>
+        <v>4.125057877670231</v>
       </c>
       <c r="L27" t="n">
-        <v>8.031784352828103</v>
+        <v>8.008018476540643</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>31.9319994389925</v>
+        <v>31.53512720098252</v>
       </c>
       <c r="B28" t="n">
-        <v>26.5337056897544</v>
+        <v>27.03792050567376</v>
       </c>
       <c r="C28" t="n">
-        <v>36.15393487905756</v>
+        <v>35.87423221463411</v>
       </c>
       <c r="D28" t="n">
-        <v>22.25206136933894</v>
+        <v>22.18725896429212</v>
       </c>
       <c r="E28" t="n">
-        <v>19.26076249466722</v>
+        <v>19.26562367104054</v>
       </c>
       <c r="F28" t="n">
-        <v>25.74107381802674</v>
+        <v>25.66360521339153</v>
       </c>
       <c r="G28" t="n">
-        <v>13.49377640574021</v>
+        <v>13.41638107755223</v>
       </c>
       <c r="H28" t="n">
-        <v>10.62447146941521</v>
+        <v>10.56093895872635</v>
       </c>
       <c r="I28" t="n">
-        <v>17.08902400420641</v>
+        <v>16.97232843033411</v>
       </c>
       <c r="J28" t="n">
-        <v>21.70776047233005</v>
+        <v>21.65288010418584</v>
       </c>
       <c r="K28" t="n">
-        <v>18.77206671776649</v>
+        <v>18.74213839997146</v>
       </c>
       <c r="L28" t="n">
-        <v>24.94580217099799</v>
+        <v>24.78438195826074</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>42.55910506856583</v>
+        <v>41.49114629502472</v>
       </c>
       <c r="B29" t="n">
-        <v>15.25971978691017</v>
+        <v>13.77408858447487</v>
       </c>
       <c r="C29" t="n">
-        <v>67.6354636596481</v>
+        <v>67.61371917808211</v>
       </c>
       <c r="D29" t="n">
-        <v>30.69948009267335</v>
+        <v>30.45895476906276</v>
       </c>
       <c r="E29" t="n">
-        <v>22.33748952990268</v>
+        <v>22.33360295136336</v>
       </c>
       <c r="F29" t="n">
-        <v>39.92245922690022</v>
+        <v>39.99941717234494</v>
       </c>
       <c r="G29" t="n">
-        <v>29.45677065149714</v>
+        <v>29.39979460589133</v>
       </c>
       <c r="H29" t="n">
-        <v>13.33632200847825</v>
+        <v>13.19360373388021</v>
       </c>
       <c r="I29" t="n">
-        <v>46.05034106568988</v>
+        <v>45.94217277293478</v>
       </c>
       <c r="J29" t="n">
-        <v>36.80852846441811</v>
+        <v>36.35683644956197</v>
       </c>
       <c r="K29" t="n">
-        <v>10.52390212767263</v>
+        <v>11.13966415525109</v>
       </c>
       <c r="L29" t="n">
-        <v>57.39047221135024</v>
+        <v>57.39202987605997</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>38.8546251515742</v>
+        <v>38.67096087115623</v>
       </c>
       <c r="B30" t="n">
-        <v>31.20005845562879</v>
+        <v>31.64835507059672</v>
       </c>
       <c r="C30" t="n">
-        <v>44.9399785566743</v>
+        <v>45.12940974431601</v>
       </c>
       <c r="D30" t="n">
-        <v>28.98011923921179</v>
+        <v>28.6865790758553</v>
       </c>
       <c r="E30" t="n">
-        <v>25.72021480219019</v>
+        <v>25.45671707822484</v>
       </c>
       <c r="F30" t="n">
-        <v>32.18246049406001</v>
+        <v>32.21302107106922</v>
       </c>
       <c r="G30" t="n">
-        <v>20.47823901226994</v>
+        <v>20.60708704189488</v>
       </c>
       <c r="H30" t="n">
-        <v>17.65331091181252</v>
+        <v>17.63505096832283</v>
       </c>
       <c r="I30" t="n">
-        <v>23.67986450594038</v>
+        <v>24.03360703208261</v>
       </c>
       <c r="J30" t="n">
-        <v>30.06859457226215</v>
+        <v>30.06459902813629</v>
       </c>
       <c r="K30" t="n">
-        <v>26.53681559679893</v>
+        <v>26.95833028671054</v>
       </c>
       <c r="L30" t="n">
-        <v>33.3855721717255</v>
+        <v>33.46108177086325</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>26.44967237606228</v>
+        <v>26.34495893366611</v>
       </c>
       <c r="B31" t="n">
-        <v>22.81231913376157</v>
+        <v>22.56356458079226</v>
       </c>
       <c r="C31" t="n">
-        <v>29.94388245662618</v>
+        <v>30.0505055099752</v>
       </c>
       <c r="D31" t="n">
-        <v>14.49199479347182</v>
+        <v>14.44227697985361</v>
       </c>
       <c r="E31" t="n">
-        <v>11.20647099114256</v>
+        <v>11.17956028856414</v>
       </c>
       <c r="F31" t="n">
-        <v>18.40770178958516</v>
+        <v>18.38008521156116</v>
       </c>
       <c r="G31" t="n">
-        <v>3.957878916284702</v>
+        <v>3.978033051686267</v>
       </c>
       <c r="H31" t="n">
-        <v>2.612214623171209</v>
+        <v>2.590139172645962</v>
       </c>
       <c r="I31" t="n">
-        <v>6.185027814366019</v>
+        <v>6.23358142000048</v>
       </c>
       <c r="J31" t="n">
-        <v>9.268139885671012</v>
+        <v>9.344513512204651</v>
       </c>
       <c r="K31" t="n">
-        <v>6.508046810756972</v>
+        <v>6.561086451379786</v>
       </c>
       <c r="L31" t="n">
-        <v>12.97976047259661</v>
+        <v>13.09073100372777</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>22.7568748692506</v>
+        <v>22.61465655264002</v>
       </c>
       <c r="B32" t="n">
-        <v>18.95517864652238</v>
+        <v>18.87210621960087</v>
       </c>
       <c r="C32" t="n">
-        <v>26.2911141865952</v>
+        <v>26.09112746130591</v>
       </c>
       <c r="D32" t="n">
-        <v>11.97435323615196</v>
+        <v>11.87806455820513</v>
       </c>
       <c r="E32" t="n">
-        <v>9.19110959189597</v>
+        <v>9.162484971419223</v>
       </c>
       <c r="F32" t="n">
-        <v>15.58450808568704</v>
+        <v>15.51989246099854</v>
       </c>
       <c r="G32" t="n">
-        <v>2.105593772986601</v>
+        <v>2.084786853907902</v>
       </c>
       <c r="H32" t="n">
-        <v>1.507109383930305</v>
+        <v>1.513537406128048</v>
       </c>
       <c r="I32" t="n">
-        <v>3.19918322969133</v>
+        <v>3.211406206095489</v>
       </c>
       <c r="J32" t="n">
-        <v>5.525260639844215</v>
+        <v>5.514597777634476</v>
       </c>
       <c r="K32" t="n">
-        <v>4.094392421769672</v>
+        <v>4.080714905721047</v>
       </c>
       <c r="L32" t="n">
-        <v>7.864544550518755</v>
+        <v>7.783896612285412</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>28.56306758916908</v>
+        <v>28.29089266082029</v>
       </c>
       <c r="B33" t="n">
-        <v>24.43115555553292</v>
+        <v>24.23228914020874</v>
       </c>
       <c r="C33" t="n">
-        <v>32.25691282979291</v>
+        <v>32.19104322856541</v>
       </c>
       <c r="D33" t="n">
-        <v>14.98207950996962</v>
+        <v>14.93076854219543</v>
       </c>
       <c r="E33" t="n">
-        <v>11.56070404012931</v>
+        <v>11.45605838248511</v>
       </c>
       <c r="F33" t="n">
-        <v>19.29978916547209</v>
+        <v>19.25734169484656</v>
       </c>
       <c r="G33" t="n">
-        <v>3.942275714403942</v>
+        <v>3.971376159455967</v>
       </c>
       <c r="H33" t="n">
-        <v>2.601413798523408</v>
+        <v>2.597055601963951</v>
       </c>
       <c r="I33" t="n">
-        <v>6.192914439335729</v>
+        <v>6.252342146959531</v>
       </c>
       <c r="J33" t="n">
-        <v>9.302663937495186</v>
+        <v>9.357844283151859</v>
       </c>
       <c r="K33" t="n">
-        <v>6.720375888752208</v>
+        <v>6.674313779240581</v>
       </c>
       <c r="L33" t="n">
-        <v>12.95482864443523</v>
+        <v>13.08329133041103</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>41.20136467421293</v>
+        <v>41.12051427552592</v>
       </c>
       <c r="B34" t="n">
-        <v>35.39233596999217</v>
+        <v>35.12153103367764</v>
       </c>
       <c r="C34" t="n">
-        <v>46.90534567409203</v>
+        <v>46.78676804533985</v>
       </c>
       <c r="D34" t="n">
-        <v>26.83975237591277</v>
+        <v>26.73566395440429</v>
       </c>
       <c r="E34" t="n">
-        <v>21.82068384115897</v>
+        <v>21.81872081454568</v>
       </c>
       <c r="F34" t="n">
-        <v>31.96301151626485</v>
+        <v>32.0123977544295</v>
       </c>
       <c r="G34" t="n">
-        <v>15.34429144211639</v>
+        <v>15.51201250637525</v>
       </c>
       <c r="H34" t="n">
-        <v>11.82954507115046</v>
+        <v>11.6651928879037</v>
       </c>
       <c r="I34" t="n">
-        <v>20.54564639179701</v>
+        <v>20.65644231815832</v>
       </c>
       <c r="J34" t="n">
-        <v>25.59850008097743</v>
+        <v>25.7862616764958</v>
       </c>
       <c r="K34" t="n">
-        <v>20.8007722135255</v>
+        <v>20.98610089584591</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61164871807016</v>
+        <v>31.45817356732279</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>39.26041721299521</v>
+        <v>39.5965680862906</v>
       </c>
       <c r="B35" t="n">
-        <v>27.31261503599817</v>
+        <v>27.10342178398464</v>
       </c>
       <c r="C35" t="n">
-        <v>51.64284734545723</v>
+        <v>51.2127872142281</v>
       </c>
       <c r="D35" t="n">
-        <v>29.65958418760249</v>
+        <v>30.06009000713693</v>
       </c>
       <c r="E35" t="n">
-        <v>25.84569006805043</v>
+        <v>25.87573434448731</v>
       </c>
       <c r="F35" t="n">
-        <v>34.2530660038025</v>
+        <v>34.04181281974124</v>
       </c>
       <c r="G35" t="n">
-        <v>24.0163573378857</v>
+        <v>23.69880845317674</v>
       </c>
       <c r="H35" t="n">
-        <v>19.81625706515976</v>
+        <v>20.02520409846402</v>
       </c>
       <c r="I35" t="n">
-        <v>27.81006744849601</v>
+        <v>27.62149229751984</v>
       </c>
       <c r="J35" t="n">
-        <v>32.43533980084023</v>
+        <v>32.3586858491313</v>
       </c>
       <c r="K35" t="n">
-        <v>26.45578600834267</v>
+        <v>26.64692355120056</v>
       </c>
       <c r="L35" t="n">
-        <v>37.85362769094763</v>
+        <v>37.54494465917713</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>29.32989050449605</v>
+        <v>29.03002448277795</v>
       </c>
       <c r="B36" t="n">
-        <v>23.30839291515557</v>
+        <v>24.41970201701449</v>
       </c>
       <c r="C36" t="n">
-        <v>33.7197989182329</v>
+        <v>33.60221445488212</v>
       </c>
       <c r="D36" t="n">
-        <v>20.7936166618867</v>
+        <v>20.70427215978045</v>
       </c>
       <c r="E36" t="n">
-        <v>18.21228470158309</v>
+        <v>18.13647577619239</v>
       </c>
       <c r="F36" t="n">
-        <v>23.74216789353924</v>
+        <v>23.54176277735639</v>
       </c>
       <c r="G36" t="n">
-        <v>12.63643440798248</v>
+        <v>12.63666103468758</v>
       </c>
       <c r="H36" t="n">
-        <v>10.06072642283286</v>
+        <v>10.04360539544551</v>
       </c>
       <c r="I36" t="n">
-        <v>16.14564092615555</v>
+        <v>16.20420366968425</v>
       </c>
       <c r="J36" t="n">
-        <v>20.35488086914465</v>
+        <v>20.34073189958277</v>
       </c>
       <c r="K36" t="n">
-        <v>17.4356857101279</v>
+        <v>17.38654948892653</v>
       </c>
       <c r="L36" t="n">
-        <v>23.04659833168001</v>
+        <v>23.16140482312568</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>41.21834508483098</v>
+        <v>42.46257197071454</v>
       </c>
       <c r="B37" t="n">
-        <v>20.74047619482491</v>
+        <v>21.29424086757986</v>
       </c>
       <c r="C37" t="n">
-        <v>60.99828547139008</v>
+        <v>60.92587625570773</v>
       </c>
       <c r="D37" t="n">
-        <v>31.55021620065931</v>
+        <v>31.68716671629082</v>
       </c>
       <c r="E37" t="n">
-        <v>25.5422357192504</v>
+        <v>25.29625882922122</v>
       </c>
       <c r="F37" t="n">
-        <v>37.81831962347231</v>
+        <v>37.89701780140242</v>
       </c>
       <c r="G37" t="n">
-        <v>27.20329772473742</v>
+        <v>27.48406603247171</v>
       </c>
       <c r="H37" t="n">
-        <v>20.69124042054566</v>
+        <v>20.30176128753824</v>
       </c>
       <c r="I37" t="n">
-        <v>34.41656980261713</v>
+        <v>34.44853063233938</v>
       </c>
       <c r="J37" t="n">
-        <v>35.32599452451013</v>
+        <v>36.28283966896711</v>
       </c>
       <c r="K37" t="n">
-        <v>23.74253408554756</v>
+        <v>23.59511695613668</v>
       </c>
       <c r="L37" t="n">
-        <v>48.94951352183787</v>
+        <v>48.67968563309324</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>31.87612605331439</v>
+        <v>32.00513399006533</v>
       </c>
       <c r="B38" t="n">
-        <v>27.54085886926575</v>
+        <v>27.67909721415166</v>
       </c>
       <c r="C38" t="n">
-        <v>36.6816312600689</v>
+        <v>36.74057369328774</v>
       </c>
       <c r="D38" t="n">
-        <v>15.56899527798362</v>
+        <v>15.61881933534948</v>
       </c>
       <c r="E38" t="n">
-        <v>11.65084618155701</v>
+        <v>11.77385712440296</v>
       </c>
       <c r="F38" t="n">
-        <v>21.1267209286153</v>
+        <v>21.06872936968992</v>
       </c>
       <c r="G38" t="n">
-        <v>3.91634701208228</v>
+        <v>3.924694481666227</v>
       </c>
       <c r="H38" t="n">
-        <v>2.600178807324393</v>
+        <v>2.593982801788156</v>
       </c>
       <c r="I38" t="n">
-        <v>6.232473699619111</v>
+        <v>6.321378907449016</v>
       </c>
       <c r="J38" t="n">
-        <v>9.189268463755671</v>
+        <v>9.149191468495241</v>
       </c>
       <c r="K38" t="n">
-        <v>6.55940006396987</v>
+        <v>6.593493031770084</v>
       </c>
       <c r="L38" t="n">
-        <v>13.1634424693358</v>
+        <v>12.99906670101502</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>44.56500325656948</v>
+        <v>44.18609529770615</v>
       </c>
       <c r="B39" t="n">
-        <v>35.55782965747758</v>
+        <v>36.66538092494923</v>
       </c>
       <c r="C39" t="n">
-        <v>51.18360961266342</v>
+        <v>51.8944411247202</v>
       </c>
       <c r="D39" t="n">
-        <v>32.25855809343341</v>
+        <v>31.8962544756693</v>
       </c>
       <c r="E39" t="n">
-        <v>28.85483807168395</v>
+        <v>28.54275621579673</v>
       </c>
       <c r="F39" t="n">
-        <v>35.54045401651417</v>
+        <v>35.94077154080045</v>
       </c>
       <c r="G39" t="n">
-        <v>22.67113027414669</v>
+        <v>23.0417177955036</v>
       </c>
       <c r="H39" t="n">
-        <v>19.78805404008119</v>
+        <v>19.83721450105817</v>
       </c>
       <c r="I39" t="n">
-        <v>26.40122794510757</v>
+        <v>26.79506323002369</v>
       </c>
       <c r="J39" t="n">
-        <v>33.6547064685415</v>
+        <v>33.65854164668704</v>
       </c>
       <c r="K39" t="n">
-        <v>30.10321666665533</v>
+        <v>29.5746229773435</v>
       </c>
       <c r="L39" t="n">
-        <v>37.31678043936958</v>
+        <v>37.8245099156271</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>32.51655810011672</v>
+        <v>32.25899715701086</v>
       </c>
       <c r="B40" t="n">
-        <v>12.56045448720732</v>
+        <v>12.18654155251134</v>
       </c>
       <c r="C40" t="n">
-        <v>50.77054188450507</v>
+        <v>50.14881826484016</v>
       </c>
       <c r="D40" t="n">
-        <v>24.70730638492688</v>
+        <v>24.3438528035884</v>
       </c>
       <c r="E40" t="n">
-        <v>18.68618440167433</v>
+        <v>18.23225441272733</v>
       </c>
       <c r="F40" t="n">
-        <v>30.93446960033236</v>
+        <v>29.93085724339158</v>
       </c>
       <c r="G40" t="n">
-        <v>21.78540143786417</v>
+        <v>21.42698091686736</v>
       </c>
       <c r="H40" t="n">
-        <v>16.68007539435898</v>
+        <v>15.9816747007994</v>
       </c>
       <c r="I40" t="n">
-        <v>27.59415538059881</v>
+        <v>27.30097291741906</v>
       </c>
       <c r="J40" t="n">
-        <v>26.88492968636823</v>
+        <v>26.53625645540147</v>
       </c>
       <c r="K40" t="n">
-        <v>15.22530964458239</v>
+        <v>13.90709471537186</v>
       </c>
       <c r="L40" t="n">
-        <v>38.00931721058996</v>
+        <v>37.86992423990393</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>26.39656582351627</v>
+        <v>26.39954695136876</v>
       </c>
       <c r="B41" t="n">
-        <v>21.20315220703262</v>
+        <v>21.68916911943762</v>
       </c>
       <c r="C41" t="n">
-        <v>31.19940226883461</v>
+        <v>31.25105269061778</v>
       </c>
       <c r="D41" t="n">
-        <v>19.25589082474962</v>
+        <v>19.30861818998418</v>
       </c>
       <c r="E41" t="n">
-        <v>16.87754750448302</v>
+        <v>16.93474377021834</v>
       </c>
       <c r="F41" t="n">
-        <v>21.79881132871123</v>
+        <v>21.85899257310002</v>
       </c>
       <c r="G41" t="n">
-        <v>11.99560055464443</v>
+        <v>11.98988567183557</v>
       </c>
       <c r="H41" t="n">
-        <v>9.875717277523005</v>
+        <v>9.855196331573554</v>
       </c>
       <c r="I41" t="n">
-        <v>14.90169505507758</v>
+        <v>14.93919004753295</v>
       </c>
       <c r="J41" t="n">
-        <v>18.93535515801641</v>
+        <v>18.93174825792205</v>
       </c>
       <c r="K41" t="n">
-        <v>16.7453426380175</v>
+        <v>16.74952460739246</v>
       </c>
       <c r="L41" t="n">
-        <v>21.54441702843106</v>
+        <v>21.48986110778287</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>33.04502321300034</v>
+        <v>33.04668048007434</v>
       </c>
       <c r="B42" t="n">
-        <v>28.54205093838778</v>
+        <v>28.59460170512763</v>
       </c>
       <c r="C42" t="n">
-        <v>37.74721292860356</v>
+        <v>37.69161692963961</v>
       </c>
       <c r="D42" t="n">
-        <v>19.15256891256204</v>
+        <v>19.1503207745877</v>
       </c>
       <c r="E42" t="n">
-        <v>15.02964109768911</v>
+        <v>15.03282432478313</v>
       </c>
       <c r="F42" t="n">
-        <v>24.07714279744001</v>
+        <v>24.06803391898603</v>
       </c>
       <c r="G42" t="n">
-        <v>7.873966730568612</v>
+        <v>7.824595503154748</v>
       </c>
       <c r="H42" t="n">
-        <v>5.248297538297847</v>
+        <v>5.253428337554608</v>
       </c>
       <c r="I42" t="n">
-        <v>12.31271816444501</v>
+        <v>12.27291687148554</v>
       </c>
       <c r="J42" t="n">
-        <v>15.66370655658317</v>
+        <v>15.56502617167597</v>
       </c>
       <c r="K42" t="n">
-        <v>11.71386380793048</v>
+        <v>11.4746735224132</v>
       </c>
       <c r="L42" t="n">
-        <v>20.74390879572172</v>
+        <v>20.65618663882317</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>38.7542245594114</v>
+        <v>38.68499425140966</v>
       </c>
       <c r="B43" t="n">
-        <v>31.20005845562879</v>
+        <v>31.64534248683346</v>
       </c>
       <c r="C43" t="n">
-        <v>44.87257242730147</v>
+        <v>45.13525614353323</v>
       </c>
       <c r="D43" t="n">
-        <v>29.00041228100882</v>
+        <v>28.68008691963214</v>
       </c>
       <c r="E43" t="n">
-        <v>25.6601480529339</v>
+        <v>25.44922384470187</v>
       </c>
       <c r="F43" t="n">
-        <v>32.1700902767914</v>
+        <v>32.20958097078974</v>
       </c>
       <c r="G43" t="n">
-        <v>20.47823901226994</v>
+        <v>20.60135859979128</v>
       </c>
       <c r="H43" t="n">
-        <v>17.76351948278121</v>
+        <v>17.63018960458871</v>
       </c>
       <c r="I43" t="n">
-        <v>23.65965696315675</v>
+        <v>24.01629039111996</v>
       </c>
       <c r="J43" t="n">
-        <v>30.06859457226215</v>
+        <v>30.06223682782397</v>
       </c>
       <c r="K43" t="n">
-        <v>26.56682200452289</v>
+        <v>26.96831218793628</v>
       </c>
       <c r="L43" t="n">
-        <v>33.3258286859089</v>
+        <v>33.46804606321104</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>24.36449723389773</v>
+        <v>24.35236568146052</v>
       </c>
       <c r="B44" t="n">
-        <v>20.63537065964253</v>
+        <v>20.7076130268112</v>
       </c>
       <c r="C44" t="n">
-        <v>28.29085821118434</v>
+        <v>28.34399622177238</v>
       </c>
       <c r="D44" t="n">
-        <v>16.13516565969557</v>
+        <v>16.130458118752</v>
       </c>
       <c r="E44" t="n">
-        <v>13.52442945671865</v>
+        <v>13.49653805135677</v>
       </c>
       <c r="F44" t="n">
-        <v>19.31811172906612</v>
+        <v>19.29311192974283</v>
       </c>
       <c r="G44" t="n">
-        <v>7.325643764440584</v>
+        <v>7.319614644702725</v>
       </c>
       <c r="H44" t="n">
-        <v>5.192003625309691</v>
+        <v>5.258764652025572</v>
       </c>
       <c r="I44" t="n">
-        <v>10.57088593397395</v>
+        <v>10.56555614725374</v>
       </c>
       <c r="J44" t="n">
-        <v>13.83561924484376</v>
+        <v>13.83128420345437</v>
       </c>
       <c r="K44" t="n">
-        <v>11.04276302160717</v>
+        <v>10.89918134499355</v>
       </c>
       <c r="L44" t="n">
-        <v>17.12665256334093</v>
+        <v>17.1341447355329</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>36.97033089870769</v>
+        <v>37.00337129330087</v>
       </c>
       <c r="B45" t="n">
-        <v>32.34529108761426</v>
+        <v>31.97491045741454</v>
       </c>
       <c r="C45" t="n">
-        <v>42.25963726259572</v>
+        <v>42.32788006728325</v>
       </c>
       <c r="D45" t="n">
-        <v>20.15982368671148</v>
+        <v>20.14829074750172</v>
       </c>
       <c r="E45" t="n">
-        <v>15.54160648938862</v>
+        <v>15.49271249071407</v>
       </c>
       <c r="F45" t="n">
-        <v>25.86622695976955</v>
+        <v>25.88089017157684</v>
       </c>
       <c r="G45" t="n">
-        <v>8.00173858626548</v>
+        <v>8.009165717980215</v>
       </c>
       <c r="H45" t="n">
-        <v>5.318675290577062</v>
+        <v>5.293165500843946</v>
       </c>
       <c r="I45" t="n">
-        <v>12.74595382287799</v>
+        <v>12.77787968238151</v>
       </c>
       <c r="J45" t="n">
-        <v>16.08210873191365</v>
+        <v>16.14265768833835</v>
       </c>
       <c r="K45" t="n">
-        <v>11.7619802929211</v>
+        <v>11.870177924062</v>
       </c>
       <c r="L45" t="n">
-        <v>21.54798066844514</v>
+        <v>21.64230993138539</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>24.23483542780687</v>
+        <v>24.23178827939399</v>
       </c>
       <c r="B46" t="n">
-        <v>20.82070062821959</v>
+        <v>20.76831648141475</v>
       </c>
       <c r="C46" t="n">
-        <v>27.80178975990469</v>
+        <v>27.7667409529097</v>
       </c>
       <c r="D46" t="n">
-        <v>14.00652923499823</v>
+        <v>14.00140452179755</v>
       </c>
       <c r="E46" t="n">
-        <v>11.05330993160118</v>
+        <v>11.10739653173029</v>
       </c>
       <c r="F46" t="n">
-        <v>17.52166865653442</v>
+        <v>17.47390864186329</v>
       </c>
       <c r="G46" t="n">
-        <v>3.892488585071476</v>
+        <v>3.923805230605427</v>
       </c>
       <c r="H46" t="n">
-        <v>2.591185589329726</v>
+        <v>2.625054414404792</v>
       </c>
       <c r="I46" t="n">
-        <v>6.065855417434242</v>
+        <v>6.048873821383902</v>
       </c>
       <c r="J46" t="n">
-        <v>8.91967818151995</v>
+        <v>8.926325259161635</v>
       </c>
       <c r="K46" t="n">
-        <v>6.506537080810192</v>
+        <v>6.464072362654663</v>
       </c>
       <c r="L46" t="n">
-        <v>12.18810533098956</v>
+        <v>12.30509412264595</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>25.73950067528402</v>
+        <v>25.83127173517483</v>
       </c>
       <c r="B47" t="n">
-        <v>21.83860714240238</v>
+        <v>21.30599158741226</v>
       </c>
       <c r="C47" t="n">
-        <v>30.10643961677149</v>
+        <v>30.01541306794947</v>
       </c>
       <c r="D47" t="n">
-        <v>11.45451373521436</v>
+        <v>11.45153883940561</v>
       </c>
       <c r="E47" t="n">
-        <v>8.399355073427941</v>
+        <v>8.319659351227321</v>
       </c>
       <c r="F47" t="n">
-        <v>15.61823310574459</v>
+        <v>15.73722622642615</v>
       </c>
       <c r="G47" t="n">
-        <v>1.354916656141133</v>
+        <v>1.368327392277792</v>
       </c>
       <c r="H47" t="n">
-        <v>1.059431125658849</v>
+        <v>1.054199814501735</v>
       </c>
       <c r="I47" t="n">
-        <v>1.849952071598239</v>
+        <v>1.878184466347881</v>
       </c>
       <c r="J47" t="n">
-        <v>3.801518228526303</v>
+        <v>3.790213717534968</v>
       </c>
       <c r="K47" t="n">
-        <v>2.85990518818939</v>
+        <v>2.826813653363934</v>
       </c>
       <c r="L47" t="n">
-        <v>5.228866799709913</v>
+        <v>5.30889447668276</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>41.7147553871276</v>
+        <v>42.43573696075357</v>
       </c>
       <c r="B48" t="n">
-        <v>33.82477465701272</v>
+        <v>35.40707222196573</v>
       </c>
       <c r="C48" t="n">
-        <v>48.9269151859632</v>
+        <v>49.90699381318001</v>
       </c>
       <c r="D48" t="n">
-        <v>30.74292643905083</v>
+        <v>30.69967093210633</v>
       </c>
       <c r="E48" t="n">
-        <v>27.53821879057206</v>
+        <v>27.35442963009647</v>
       </c>
       <c r="F48" t="n">
-        <v>34.16176785659709</v>
+        <v>34.73061235221818</v>
       </c>
       <c r="G48" t="n">
-        <v>21.86995962464227</v>
+        <v>22.04782764891094</v>
       </c>
       <c r="H48" t="n">
-        <v>18.76988743600332</v>
+        <v>19.01277478878922</v>
       </c>
       <c r="I48" t="n">
-        <v>25.78514128613669</v>
+        <v>26.04539700203233</v>
       </c>
       <c r="J48" t="n">
-        <v>32.30202717871725</v>
+        <v>32.55601931772924</v>
       </c>
       <c r="K48" t="n">
-        <v>29.33487473470785</v>
+        <v>28.95286289143715</v>
       </c>
       <c r="L48" t="n">
-        <v>36.11360084562492</v>
+        <v>36.48785710923102</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>30.20981852824133</v>
+        <v>30.44230188438564</v>
       </c>
       <c r="B49" t="n">
-        <v>9.210108170254395</v>
+        <v>8.572963470319619</v>
       </c>
       <c r="C49" t="n">
-        <v>48.07446813063767</v>
+        <v>47.00214246575337</v>
       </c>
       <c r="D49" t="n">
-        <v>22.42698093002962</v>
+        <v>22.58865077048363</v>
       </c>
       <c r="E49" t="n">
-        <v>17.39034264410013</v>
+        <v>17.34060224505899</v>
       </c>
       <c r="F49" t="n">
-        <v>28.16014652894941</v>
+        <v>28.45147580486671</v>
       </c>
       <c r="G49" t="n">
-        <v>19.47591911832642</v>
+        <v>19.597371627291</v>
       </c>
       <c r="H49" t="n">
-        <v>14.03009205382403</v>
+        <v>13.70658401285268</v>
       </c>
       <c r="I49" t="n">
-        <v>25.3738667360328</v>
+        <v>25.47748175916279</v>
       </c>
       <c r="J49" t="n">
-        <v>24.97273997541538</v>
+        <v>25.22241995518829</v>
       </c>
       <c r="K49" t="n">
-        <v>15.3452224477699</v>
+        <v>15.2777552286465</v>
       </c>
       <c r="L49" t="n">
-        <v>35.6804585487104</v>
+        <v>35.93496624918453</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>41.59653414849642</v>
+        <v>42.28926413169796</v>
       </c>
       <c r="B50" t="n">
-        <v>20.85500415525109</v>
+        <v>20.95128561643831</v>
       </c>
       <c r="C50" t="n">
-        <v>60.69715753294936</v>
+        <v>60.77666931506847</v>
       </c>
       <c r="D50" t="n">
-        <v>31.65965497313575</v>
+        <v>31.63185092174839</v>
       </c>
       <c r="E50" t="n">
-        <v>25.38192616201313</v>
+        <v>25.10686630404348</v>
       </c>
       <c r="F50" t="n">
-        <v>37.74515751487186</v>
+        <v>38.05053893846911</v>
       </c>
       <c r="G50" t="n">
-        <v>27.17906770044326</v>
+        <v>27.43656059354698</v>
       </c>
       <c r="H50" t="n">
-        <v>20.72537960350671</v>
+        <v>20.09889015886417</v>
       </c>
       <c r="I50" t="n">
-        <v>34.55268533968474</v>
+        <v>34.46653643517136</v>
       </c>
       <c r="J50" t="n">
-        <v>35.36945386203327</v>
+        <v>36.09092209599028</v>
       </c>
       <c r="K50" t="n">
-        <v>23.63182825839824</v>
+        <v>23.54797354728122</v>
       </c>
       <c r="L50" t="n">
-        <v>48.80674854849063</v>
+        <v>48.45821823077696</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>25.82778208069766</v>
+        <v>26.06321246529037</v>
       </c>
       <c r="B51" t="n">
-        <v>6.450652496013607</v>
+        <v>7.707186301369855</v>
       </c>
       <c r="C51" t="n">
-        <v>42.65049821917806</v>
+        <v>43.35349178082191</v>
       </c>
       <c r="D51" t="n">
-        <v>18.85754421935863</v>
+        <v>18.97408828490732</v>
       </c>
       <c r="E51" t="n">
-        <v>11.77352581991614</v>
+        <v>11.64266566777101</v>
       </c>
       <c r="F51" t="n">
-        <v>27.12157835790362</v>
+        <v>27.47684212782187</v>
       </c>
       <c r="G51" t="n">
-        <v>18.05808492364264</v>
+        <v>18.42699142244276</v>
       </c>
       <c r="H51" t="n">
-        <v>7.013761513318108</v>
+        <v>6.964142351598168</v>
       </c>
       <c r="I51" t="n">
-        <v>30.03700255465211</v>
+        <v>29.8396287595129</v>
       </c>
       <c r="J51" t="n">
-        <v>21.75637048459235</v>
+        <v>21.83756613833144</v>
       </c>
       <c r="K51" t="n">
-        <v>5.16526248985286</v>
+        <v>5.486528310502283</v>
       </c>
       <c r="L51" t="n">
-        <v>40.26214347140674</v>
+        <v>39.74483196347023</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>22.03005253457577</v>
+        <v>22.09927288157543</v>
       </c>
       <c r="B52" t="n">
-        <v>18.84131757498227</v>
+        <v>18.83279688251156</v>
       </c>
       <c r="C52" t="n">
-        <v>25.40298939797389</v>
+        <v>25.43347596399166</v>
       </c>
       <c r="D52" t="n">
-        <v>13.27130442629967</v>
+        <v>13.2566026629296</v>
       </c>
       <c r="E52" t="n">
-        <v>10.70943834495784</v>
+        <v>10.67326750623205</v>
       </c>
       <c r="F52" t="n">
-        <v>16.32444719266024</v>
+        <v>16.34759286821771</v>
       </c>
       <c r="G52" t="n">
-        <v>3.801819677995581</v>
+        <v>3.837521973351506</v>
       </c>
       <c r="H52" t="n">
-        <v>2.606305482955909</v>
+        <v>2.615748550743222</v>
       </c>
       <c r="I52" t="n">
-        <v>6.079966085478251</v>
+        <v>6.077474630973927</v>
       </c>
       <c r="J52" t="n">
-        <v>8.835958800891358</v>
+        <v>8.811266070756924</v>
       </c>
       <c r="K52" t="n">
-        <v>6.534387923118125</v>
+        <v>6.535541636533931</v>
       </c>
       <c r="L52" t="n">
-        <v>12.20022566205803</v>
+        <v>12.20552321679523</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>44.82617497910207</v>
+        <v>43.93539065245711</v>
       </c>
       <c r="B53" t="n">
-        <v>35.86598355840648</v>
+        <v>36.599655557655</v>
       </c>
       <c r="C53" t="n">
-        <v>50.90101053510846</v>
+        <v>51.42267773255017</v>
       </c>
       <c r="D53" t="n">
-        <v>32.21637027218767</v>
+        <v>31.67320384597976</v>
       </c>
       <c r="E53" t="n">
-        <v>28.72780873532789</v>
+        <v>28.22122502249659</v>
       </c>
       <c r="F53" t="n">
-        <v>35.4407739554213</v>
+        <v>35.66640439140509</v>
       </c>
       <c r="G53" t="n">
-        <v>22.61003224907272</v>
+        <v>22.94167738636208</v>
       </c>
       <c r="H53" t="n">
-        <v>19.69644632940589</v>
+        <v>19.56929281704324</v>
       </c>
       <c r="I53" t="n">
-        <v>26.32343941905214</v>
+        <v>26.80960600443398</v>
       </c>
       <c r="J53" t="n">
-        <v>33.75566385875064</v>
+        <v>33.56561959862977</v>
       </c>
       <c r="K53" t="n">
-        <v>30.11765210088436</v>
+        <v>29.67939992534033</v>
       </c>
       <c r="L53" t="n">
-        <v>37.29947653623147</v>
+        <v>37.62524872498467</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>38.3548786684056</v>
+        <v>38.74498904988494</v>
       </c>
       <c r="B54" t="n">
-        <v>11.61940364183759</v>
+        <v>11.46405753424655</v>
       </c>
       <c r="C54" t="n">
-        <v>61.97987916101657</v>
+        <v>62.36405296803652</v>
       </c>
       <c r="D54" t="n">
-        <v>27.72775085622936</v>
+        <v>27.69251329002998</v>
       </c>
       <c r="E54" t="n">
-        <v>19.77129557061668</v>
+        <v>19.48563040693361</v>
       </c>
       <c r="F54" t="n">
-        <v>36.46614239732291</v>
+        <v>36.84301339262054</v>
       </c>
       <c r="G54" t="n">
-        <v>25.79872493243795</v>
+        <v>25.97372008879664</v>
       </c>
       <c r="H54" t="n">
-        <v>12.37796706770341</v>
+        <v>11.70111552511414</v>
       </c>
       <c r="I54" t="n">
-        <v>39.95775716911974</v>
+        <v>40.51315760142886</v>
       </c>
       <c r="J54" t="n">
-        <v>31.57524947037259</v>
+        <v>31.50392473682656</v>
       </c>
       <c r="K54" t="n">
-        <v>9.249810756725756</v>
+        <v>10.1846854109589</v>
       </c>
       <c r="L54" t="n">
-        <v>54.27650112361382</v>
+        <v>53.83234279191129</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>38.81343264043623</v>
+        <v>39.08966784098688</v>
       </c>
       <c r="B55" t="n">
-        <v>18.13170893672536</v>
+        <v>16.82729146118716</v>
       </c>
       <c r="C55" t="n">
-        <v>57.95975253531491</v>
+        <v>56.80377926940638</v>
       </c>
       <c r="D55" t="n">
-        <v>29.34075598258254</v>
+        <v>29.2971021471957</v>
       </c>
       <c r="E55" t="n">
-        <v>22.91607791259447</v>
+        <v>22.98888107711486</v>
       </c>
       <c r="F55" t="n">
-        <v>35.9933897558174</v>
+        <v>35.75534015972067</v>
       </c>
       <c r="G55" t="n">
-        <v>25.37399422465493</v>
+        <v>25.51027265361527</v>
       </c>
       <c r="H55" t="n">
-        <v>18.50333267993471</v>
+        <v>18.47852873546409</v>
       </c>
       <c r="I55" t="n">
-        <v>32.03216040791103</v>
+        <v>32.51742600006202</v>
       </c>
       <c r="J55" t="n">
-        <v>32.54793515666413</v>
+        <v>33.09852231915497</v>
       </c>
       <c r="K55" t="n">
-        <v>21.21102736701146</v>
+        <v>20.98934144375916</v>
       </c>
       <c r="L55" t="n">
-        <v>44.45052422345498</v>
+        <v>44.79055995075945</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>26.38052207229586</v>
+        <v>26.3285266134616</v>
       </c>
       <c r="B56" t="n">
-        <v>22.80885394285892</v>
+        <v>22.58291848815886</v>
       </c>
       <c r="C56" t="n">
-        <v>30.15632956713177</v>
+        <v>30.29180453623434</v>
       </c>
       <c r="D56" t="n">
-        <v>14.45277625824322</v>
+        <v>14.44624145624558</v>
       </c>
       <c r="E56" t="n">
-        <v>11.19484693141974</v>
+        <v>11.18999732579722</v>
       </c>
       <c r="F56" t="n">
-        <v>18.44310176259557</v>
+        <v>18.34417067929926</v>
       </c>
       <c r="G56" t="n">
-        <v>3.90904903914937</v>
+        <v>3.87966328332421</v>
       </c>
       <c r="H56" t="n">
-        <v>2.613032501973476</v>
+        <v>2.626817341707369</v>
       </c>
       <c r="I56" t="n">
-        <v>6.148680747621954</v>
+        <v>6.086177320536544</v>
       </c>
       <c r="J56" t="n">
-        <v>9.184163073285406</v>
+        <v>9.016360954207798</v>
       </c>
       <c r="K56" t="n">
-        <v>6.704436080242494</v>
+        <v>6.531031639165031</v>
       </c>
       <c r="L56" t="n">
-        <v>12.90448243289013</v>
+        <v>12.78763405000885</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>22.75566428193256</v>
+        <v>22.61465655264002</v>
       </c>
       <c r="B57" t="n">
-        <v>18.9590123790365</v>
+        <v>18.87210621960087</v>
       </c>
       <c r="C57" t="n">
-        <v>26.2911141865952</v>
+        <v>26.09112746130591</v>
       </c>
       <c r="D57" t="n">
-        <v>11.96677279927791</v>
+        <v>11.87806455820513</v>
       </c>
       <c r="E57" t="n">
-        <v>9.187730214856369</v>
+        <v>9.162484971419223</v>
       </c>
       <c r="F57" t="n">
-        <v>15.58383616026071</v>
+        <v>15.51989246099854</v>
       </c>
       <c r="G57" t="n">
-        <v>2.109729029360001</v>
+        <v>2.084786853907902</v>
       </c>
       <c r="H57" t="n">
-        <v>1.509403980704501</v>
+        <v>1.513537406128048</v>
       </c>
       <c r="I57" t="n">
-        <v>3.188364939072891</v>
+        <v>3.211406206095489</v>
       </c>
       <c r="J57" t="n">
-        <v>5.527181724990701</v>
+        <v>5.514597777634476</v>
       </c>
       <c r="K57" t="n">
-        <v>4.086104429138322</v>
+        <v>4.080714905721047</v>
       </c>
       <c r="L57" t="n">
-        <v>7.886321724825313</v>
+        <v>7.783896612285412</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>41.18779966100482</v>
+        <v>41.72849255186139</v>
       </c>
       <c r="B58" t="n">
-        <v>18.29209578691016</v>
+        <v>19.42771835616433</v>
       </c>
       <c r="C58" t="n">
-        <v>60.06202442338667</v>
+        <v>60.35972027397261</v>
       </c>
       <c r="D58" t="n">
-        <v>31.54100130411155</v>
+        <v>31.52643948355308</v>
       </c>
       <c r="E58" t="n">
-        <v>25.58481017060493</v>
+        <v>25.49444061973593</v>
       </c>
       <c r="F58" t="n">
-        <v>37.83866212787557</v>
+        <v>38.02880622647637</v>
       </c>
       <c r="G58" t="n">
-        <v>27.18681175102225</v>
+        <v>27.37932948623561</v>
       </c>
       <c r="H58" t="n">
-        <v>20.57623919780122</v>
+        <v>20.32016512749408</v>
       </c>
       <c r="I58" t="n">
-        <v>34.5270737432016</v>
+        <v>34.52023997674038</v>
       </c>
       <c r="J58" t="n">
-        <v>35.3060647079464</v>
+        <v>36.1244597513293</v>
       </c>
       <c r="K58" t="n">
-        <v>23.83233906111646</v>
+        <v>24.18112581428105</v>
       </c>
       <c r="L58" t="n">
-        <v>49.10423175702324</v>
+        <v>49.47784862573936</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>28.78654433005786</v>
+        <v>28.77200455725475</v>
       </c>
       <c r="B59" t="n">
-        <v>24.85223804672863</v>
+        <v>24.36009829744212</v>
       </c>
       <c r="C59" t="n">
-        <v>33.26084526646733</v>
+        <v>33.22746851960453</v>
       </c>
       <c r="D59" t="n">
-        <v>17.8989471884866</v>
+        <v>17.88967202475116</v>
       </c>
       <c r="E59" t="n">
-        <v>14.5915553978538</v>
+        <v>14.49942428137845</v>
       </c>
       <c r="F59" t="n">
-        <v>22.23210484156158</v>
+        <v>22.13836159941135</v>
       </c>
       <c r="G59" t="n">
-        <v>7.666906599479853</v>
+        <v>7.652914503037454</v>
       </c>
       <c r="H59" t="n">
-        <v>5.260150071308671</v>
+        <v>5.213781689742237</v>
       </c>
       <c r="I59" t="n">
-        <v>11.55337474549077</v>
+        <v>11.50173874867207</v>
       </c>
       <c r="J59" t="n">
-        <v>15.00399668042342</v>
+        <v>15.00044604121891</v>
       </c>
       <c r="K59" t="n">
-        <v>11.30961267487893</v>
+        <v>11.29022507885673</v>
       </c>
       <c r="L59" t="n">
-        <v>19.13545375157895</v>
+        <v>19.15442019454646</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>39.31520006520677</v>
+        <v>40.13196083167372</v>
       </c>
       <c r="B60" t="n">
-        <v>11.91779522577372</v>
+        <v>12.47745890410959</v>
       </c>
       <c r="C60" t="n">
-        <v>63.90405301953318</v>
+        <v>65.55806621004568</v>
       </c>
       <c r="D60" t="n">
-        <v>29.84743943054939</v>
+        <v>29.84266026692514</v>
       </c>
       <c r="E60" t="n">
-        <v>21.84182168771547</v>
+        <v>21.78994431520037</v>
       </c>
       <c r="F60" t="n">
-        <v>37.90037806785438</v>
+        <v>38.99287275864956</v>
       </c>
       <c r="G60" t="n">
-        <v>27.38077306468512</v>
+        <v>28.30111488713671</v>
       </c>
       <c r="H60" t="n">
-        <v>13.83746784735808</v>
+        <v>13.39365282126542</v>
       </c>
       <c r="I60" t="n">
-        <v>45.33137525732892</v>
+        <v>45.47152754492079</v>
       </c>
       <c r="J60" t="n">
-        <v>34.54438169915367</v>
+        <v>35.02743158770352</v>
       </c>
       <c r="K60" t="n">
-        <v>12.94761396734793</v>
+        <v>11.04682294520547</v>
       </c>
       <c r="L60" t="n">
-        <v>56.80813444227001</v>
+        <v>56.73960391389427</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>30.17429176203749</v>
+        <v>30.06447290486223</v>
       </c>
       <c r="B61" t="n">
-        <v>25.894120035204</v>
+        <v>25.93038676917237</v>
       </c>
       <c r="C61" t="n">
-        <v>34.45938539340546</v>
+        <v>34.44788665887483</v>
       </c>
       <c r="D61" t="n">
-        <v>15.1502980911228</v>
+        <v>15.11582163296761</v>
       </c>
       <c r="E61" t="n">
-        <v>11.60612847102133</v>
+        <v>11.57006719602122</v>
       </c>
       <c r="F61" t="n">
-        <v>19.9260763124909</v>
+        <v>19.91679036704318</v>
       </c>
       <c r="G61" t="n">
-        <v>3.899248611056281</v>
+        <v>3.861034994475195</v>
       </c>
       <c r="H61" t="n">
-        <v>2.602577633860387</v>
+        <v>2.586988644496814</v>
       </c>
       <c r="I61" t="n">
-        <v>6.182366340209587</v>
+        <v>6.239710054911111</v>
       </c>
       <c r="J61" t="n">
-        <v>9.201918611485334</v>
+        <v>9.074437894727927</v>
       </c>
       <c r="K61" t="n">
-        <v>6.642090910890373</v>
+        <v>6.547006691378788</v>
       </c>
       <c r="L61" t="n">
-        <v>12.92975474823009</v>
+        <v>12.89404133058398</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>31.12345057280066</v>
+        <v>31.18729756322783</v>
       </c>
       <c r="B62" t="n">
-        <v>26.96816272213671</v>
+        <v>26.77356513698094</v>
       </c>
       <c r="C62" t="n">
-        <v>35.70681009092115</v>
+        <v>35.7317448889323</v>
       </c>
       <c r="D62" t="n">
-        <v>18.60946722914903</v>
+        <v>18.63355208750815</v>
       </c>
       <c r="E62" t="n">
-        <v>14.61403567685195</v>
+        <v>14.5915038105397</v>
       </c>
       <c r="F62" t="n">
-        <v>22.38241173661033</v>
+        <v>22.71729689143576</v>
       </c>
       <c r="G62" t="n">
-        <v>7.770626415538175</v>
+        <v>7.778818609698592</v>
       </c>
       <c r="H62" t="n">
-        <v>5.225226248192643</v>
+        <v>5.225543919838771</v>
       </c>
       <c r="I62" t="n">
-        <v>12.03169554903348</v>
+        <v>11.86644790012502</v>
       </c>
       <c r="J62" t="n">
-        <v>15.31091497655843</v>
+        <v>15.35220129757388</v>
       </c>
       <c r="K62" t="n">
-        <v>11.28739422629193</v>
+        <v>11.15519657746632</v>
       </c>
       <c r="L62" t="n">
-        <v>20.50690919211664</v>
+        <v>20.38193025721763</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>33.9646252668088</v>
+        <v>34.01789943060081</v>
       </c>
       <c r="B63" t="n">
-        <v>29.66410608193201</v>
+        <v>29.82041542510671</v>
       </c>
       <c r="C63" t="n">
-        <v>38.05804615337684</v>
+        <v>37.89107279748276</v>
       </c>
       <c r="D63" t="n">
-        <v>15.77940289838513</v>
+        <v>15.84699629078158</v>
       </c>
       <c r="E63" t="n">
-        <v>11.79707188421756</v>
+        <v>11.69515095912401</v>
       </c>
       <c r="F63" t="n">
-        <v>21.23329490538301</v>
+        <v>21.1698325437571</v>
       </c>
       <c r="G63" t="n">
-        <v>3.924705894416685</v>
+        <v>3.954213838371594</v>
       </c>
       <c r="H63" t="n">
-        <v>2.607548403156727</v>
+        <v>2.619261661390868</v>
       </c>
       <c r="I63" t="n">
-        <v>6.339726371539647</v>
+        <v>6.334847828003103</v>
       </c>
       <c r="J63" t="n">
-        <v>9.210290416474278</v>
+        <v>9.242306403667063</v>
       </c>
       <c r="K63" t="n">
-        <v>6.526277817538856</v>
+        <v>6.48267680707499</v>
       </c>
       <c r="L63" t="n">
-        <v>12.61314642959952</v>
+        <v>12.57167882471084</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>39.28456082116039</v>
+        <v>39.88741543665347</v>
       </c>
       <c r="B64" t="n">
-        <v>11.22871577371892</v>
+        <v>11.83361598173515</v>
       </c>
       <c r="C64" t="n">
-        <v>63.97240352012508</v>
+        <v>65.44407899543378</v>
       </c>
       <c r="D64" t="n">
-        <v>29.75501070663098</v>
+        <v>29.76811910925362</v>
       </c>
       <c r="E64" t="n">
-        <v>21.83893202704665</v>
+        <v>21.78686201048697</v>
       </c>
       <c r="F64" t="n">
-        <v>37.86853903720303</v>
+        <v>39.07892398592765</v>
       </c>
       <c r="G64" t="n">
-        <v>27.37612935317175</v>
+        <v>28.37893537860833</v>
       </c>
       <c r="H64" t="n">
-        <v>12.92286737904975</v>
+        <v>13.05549117742981</v>
       </c>
       <c r="I64" t="n">
-        <v>44.44677174313662</v>
+        <v>44.99610706220716</v>
       </c>
       <c r="J64" t="n">
-        <v>34.53163644386517</v>
+        <v>35.10598371672707</v>
       </c>
       <c r="K64" t="n">
-        <v>10.64644625512788</v>
+        <v>10.48212979452053</v>
       </c>
       <c r="L64" t="n">
-        <v>56.6029585127201</v>
+        <v>56.55453620352245</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>20.66204023578746</v>
+        <v>20.78718540620121</v>
       </c>
       <c r="B65" t="n">
-        <v>17.36315577902948</v>
+        <v>17.49217840684567</v>
       </c>
       <c r="C65" t="n">
-        <v>23.7883170492309</v>
+        <v>24.12895632343119</v>
       </c>
       <c r="D65" t="n">
-        <v>11.44004196415327</v>
+        <v>11.45226892147424</v>
       </c>
       <c r="E65" t="n">
-        <v>8.96970764909908</v>
+        <v>8.918341187285355</v>
       </c>
       <c r="F65" t="n">
-        <v>14.34209315066861</v>
+        <v>14.32777648431635</v>
       </c>
       <c r="G65" t="n">
-        <v>2.126803551289496</v>
+        <v>2.106053517413339</v>
       </c>
       <c r="H65" t="n">
-        <v>1.517811936062604</v>
+        <v>1.505426287053664</v>
       </c>
       <c r="I65" t="n">
-        <v>3.205238730500382</v>
+        <v>3.218698011919369</v>
       </c>
       <c r="J65" t="n">
-        <v>5.538740752201691</v>
+        <v>5.499263209251301</v>
       </c>
       <c r="K65" t="n">
-        <v>4.088305123676575</v>
+        <v>4.070472229186164</v>
       </c>
       <c r="L65" t="n">
-        <v>7.68305629030179</v>
+        <v>7.629829939390902</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>39.05065342551185</v>
+        <v>38.84982055718181</v>
       </c>
       <c r="B66" t="n">
-        <v>33.60056040742978</v>
+        <v>33.75080602754595</v>
       </c>
       <c r="C66" t="n">
-        <v>44.31783868426693</v>
+        <v>44.25032272612394</v>
       </c>
       <c r="D66" t="n">
-        <v>25.48545620416399</v>
+        <v>25.44031348049623</v>
       </c>
       <c r="E66" t="n">
-        <v>21.19819528844294</v>
+        <v>21.13845767147838</v>
       </c>
       <c r="F66" t="n">
-        <v>30.53344427933813</v>
+        <v>30.51060468020066</v>
       </c>
       <c r="G66" t="n">
-        <v>14.8494765804996</v>
+        <v>14.80254713442375</v>
       </c>
       <c r="H66" t="n">
-        <v>11.09118981339315</v>
+        <v>11.08684866486808</v>
       </c>
       <c r="I66" t="n">
-        <v>20.12992437246093</v>
+        <v>20.15270539882274</v>
       </c>
       <c r="J66" t="n">
-        <v>24.92799395956986</v>
+        <v>24.90367992189619</v>
       </c>
       <c r="K66" t="n">
-        <v>20.26166754313846</v>
+        <v>20.30605636164162</v>
       </c>
       <c r="L66" t="n">
-        <v>29.97588582631756</v>
+        <v>30.16420734824671</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>36.33054332810026</v>
+        <v>36.22539769906565</v>
       </c>
       <c r="B67" t="n">
-        <v>31.16921637796945</v>
+        <v>31.21381644251262</v>
       </c>
       <c r="C67" t="n">
-        <v>41.57209189464238</v>
+        <v>41.3942284880849</v>
       </c>
       <c r="D67" t="n">
-        <v>24.5324908322911</v>
+        <v>24.49753909982459</v>
       </c>
       <c r="E67" t="n">
-        <v>20.75150642702652</v>
+        <v>20.66375938843275</v>
       </c>
       <c r="F67" t="n">
-        <v>28.57474734930728</v>
+        <v>28.49017529287893</v>
       </c>
       <c r="G67" t="n">
-        <v>14.4532599821243</v>
+        <v>14.48705898508783</v>
       </c>
       <c r="H67" t="n">
-        <v>10.94622968404063</v>
+        <v>11.01585729815956</v>
       </c>
       <c r="I67" t="n">
-        <v>18.85116442762128</v>
+        <v>18.98318963806868</v>
       </c>
       <c r="J67" t="n">
-        <v>23.91497640897801</v>
+        <v>23.93900665498878</v>
       </c>
       <c r="K67" t="n">
-        <v>19.91206867186665</v>
+        <v>19.99390039030149</v>
       </c>
       <c r="L67" t="n">
-        <v>27.99408198559563</v>
+        <v>27.96116665096189</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>34.82408924317346</v>
+        <v>36.23469525916655</v>
       </c>
       <c r="B68" t="n">
-        <v>17.50402925636006</v>
+        <v>17.8039141552511</v>
       </c>
       <c r="C68" t="n">
-        <v>52.20854125184776</v>
+        <v>54.51260447488581</v>
       </c>
       <c r="D68" t="n">
-        <v>27.13939281676885</v>
+        <v>27.16246258164771</v>
       </c>
       <c r="E68" t="n">
-        <v>21.04796346834414</v>
+        <v>21.40923881026442</v>
       </c>
       <c r="F68" t="n">
-        <v>32.90666584383128</v>
+        <v>33.07489164439416</v>
       </c>
       <c r="G68" t="n">
-        <v>23.52595237506726</v>
+        <v>23.79941056977957</v>
       </c>
       <c r="H68" t="n">
-        <v>17.31683716286175</v>
+        <v>16.90236018032906</v>
       </c>
       <c r="I68" t="n">
-        <v>30.69424496546782</v>
+        <v>30.57625074378626</v>
       </c>
       <c r="J68" t="n">
-        <v>29.48451980160981</v>
+        <v>30.02488890416077</v>
       </c>
       <c r="K68" t="n">
-        <v>18.34352425358534</v>
+        <v>18.22608341320709</v>
       </c>
       <c r="L68" t="n">
-        <v>40.89716827608684</v>
+        <v>40.92388804036286</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>25.69664481310923</v>
+        <v>25.76850429046502</v>
       </c>
       <c r="B69" t="n">
-        <v>22.32468643812989</v>
+        <v>22.36789312489077</v>
       </c>
       <c r="C69" t="n">
-        <v>29.89599835437739</v>
+        <v>29.56799571976514</v>
       </c>
       <c r="D69" t="n">
-        <v>11.44301120648795</v>
+        <v>11.42679707843692</v>
       </c>
       <c r="E69" t="n">
-        <v>8.449803519840231</v>
+        <v>8.532188646901879</v>
       </c>
       <c r="F69" t="n">
-        <v>15.62829061042109</v>
+        <v>15.6266265093047</v>
       </c>
       <c r="G69" t="n">
-        <v>1.35032201512914</v>
+        <v>1.361692834735535</v>
       </c>
       <c r="H69" t="n">
-        <v>1.060571052436056</v>
+        <v>1.066486780765893</v>
       </c>
       <c r="I69" t="n">
-        <v>1.870004073088456</v>
+        <v>1.868834531997276</v>
       </c>
       <c r="J69" t="n">
-        <v>3.824027591436872</v>
+        <v>3.856614722212222</v>
       </c>
       <c r="K69" t="n">
-        <v>2.914627936980541</v>
+        <v>2.92031108198413</v>
       </c>
       <c r="L69" t="n">
-        <v>5.196933361152921</v>
+        <v>5.13772230166555</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>32.54247771571097</v>
+        <v>32.27497244209065</v>
       </c>
       <c r="B70" t="n">
-        <v>12.84884978074938</v>
+        <v>12.95129269406385</v>
       </c>
       <c r="C70" t="n">
-        <v>49.97841092927152</v>
+        <v>49.71617853881272</v>
       </c>
       <c r="D70" t="n">
-        <v>24.703993061489</v>
+        <v>24.34348732201168</v>
       </c>
       <c r="E70" t="n">
-        <v>18.7317319020605</v>
+        <v>18.65349076840272</v>
       </c>
       <c r="F70" t="n">
-        <v>31.0992832719799</v>
+        <v>30.59181725283103</v>
       </c>
       <c r="G70" t="n">
-        <v>21.63435293505189</v>
+        <v>21.25228850557579</v>
       </c>
       <c r="H70" t="n">
-        <v>16.81893746394822</v>
+        <v>16.02136521190864</v>
       </c>
       <c r="I70" t="n">
-        <v>27.62100150635888</v>
+        <v>27.39671778113057</v>
       </c>
       <c r="J70" t="n">
-        <v>26.93936528242602</v>
+        <v>26.69894859730532</v>
       </c>
       <c r="K70" t="n">
-        <v>15.1801690585107</v>
+        <v>15.2557591608512</v>
       </c>
       <c r="L70" t="n">
-        <v>37.31474543093286</v>
+        <v>36.99042187229431</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>27.37437717809531</v>
+        <v>27.49697471395884</v>
       </c>
       <c r="B71" t="n">
-        <v>19.05801390643519</v>
+        <v>18.73158924194611</v>
       </c>
       <c r="C71" t="n">
-        <v>34.69769904476551</v>
+        <v>34.72969827583996</v>
       </c>
       <c r="D71" t="n">
-        <v>21.18060788696403</v>
+        <v>21.19254528293254</v>
       </c>
       <c r="E71" t="n">
-        <v>18.68533296792521</v>
+        <v>18.92545386068166</v>
       </c>
       <c r="F71" t="n">
-        <v>23.8130498724058</v>
+        <v>23.87802834667047</v>
       </c>
       <c r="G71" t="n">
-        <v>15.33541221874592</v>
+        <v>15.32767833173903</v>
       </c>
       <c r="H71" t="n">
-        <v>13.8921157269003</v>
+        <v>13.63093809403889</v>
       </c>
       <c r="I71" t="n">
-        <v>17.76324964139107</v>
+        <v>17.74701759212569</v>
       </c>
       <c r="J71" t="n">
-        <v>21.95946378984153</v>
+        <v>21.91991404394901</v>
       </c>
       <c r="K71" t="n">
-        <v>18.96576267168812</v>
+        <v>19.2099323751625</v>
       </c>
       <c r="L71" t="n">
-        <v>24.73212420365973</v>
+        <v>24.65275756626242</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>33.76458307129147</v>
+        <v>33.46570563397709</v>
       </c>
       <c r="B72" t="n">
-        <v>26.42503951992055</v>
+        <v>25.89133809807199</v>
       </c>
       <c r="C72" t="n">
-        <v>40.54152969796987</v>
+        <v>40.6926258162711</v>
       </c>
       <c r="D72" t="n">
-        <v>25.28269000306528</v>
+        <v>25.03541628958002</v>
       </c>
       <c r="E72" t="n">
-        <v>22.38686410889681</v>
+        <v>22.25632306235952</v>
       </c>
       <c r="F72" t="n">
-        <v>28.21059561127478</v>
+        <v>28.10950598408529</v>
       </c>
       <c r="G72" t="n">
-        <v>18.19901866426493</v>
+        <v>18.15001404238988</v>
       </c>
       <c r="H72" t="n">
-        <v>16.20408974846049</v>
+        <v>15.94819293656833</v>
       </c>
       <c r="I72" t="n">
-        <v>21.09787812863891</v>
+        <v>20.97770745128575</v>
       </c>
       <c r="J72" t="n">
-        <v>26.30572931005629</v>
+        <v>26.16907598354003</v>
       </c>
       <c r="K72" t="n">
-        <v>23.33916543984762</v>
+        <v>23.33115509648311</v>
       </c>
       <c r="L72" t="n">
-        <v>29.27097548945395</v>
+        <v>29.03650486791294</v>
       </c>
     </row>
   </sheetData>
